--- a/US/data/CBS/NFIB/Expected Credit Conditions.xlsx
+++ b/US/data/CBS/NFIB/Expected Credit Conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0981FD74-D3C4-4183-8BDE-45CD69B270FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8484D73-26F6-475B-AF03-FC825B089705}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="455">
   <si>
     <t>Month/Year</t>
   </si>
@@ -1363,10 +1363,28 @@
     <t>2021/8/1</t>
   </si>
   <si>
+    <t>2021/9/1</t>
+  </si>
+  <si>
     <t>2021/10/1</t>
   </si>
   <si>
+    <t>2021/11/1</t>
+  </si>
+  <si>
     <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5226,10 +5244,57 @@
         <v>8</v>
       </c>
     </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>449</v>
+      </c>
+      <c r="B432" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>450</v>
+      </c>
+      <c r="B433" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>451</v>
+      </c>
+      <c r="B434" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>452</v>
+      </c>
+      <c r="B435" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>453</v>
+      </c>
+      <c r="B436" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>454</v>
+      </c>
+      <c r="B437" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Expected Credit Conditions.xlsx
+++ b/US/data/CBS/NFIB/Expected Credit Conditions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8484D73-26F6-475B-AF03-FC825B089705}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8710466-0E40-4A97-9E00-3F6C848749B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="456">
   <si>
     <t>Month/Year</t>
   </si>
@@ -1385,6 +1385,9 @@
   </si>
   <si>
     <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5292,9 +5295,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>455</v>
+      </c>
+      <c r="B438" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>